--- a/balancete_alteracoes.xlsx
+++ b/balancete_alteracoes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Logika\Downloads\Projeto Honorarios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Hdlogika\k\Backup_19_08_2021\Unidade_D\K\LEATICIA\Luiz Fernando\Boletos_Automation\Office-automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B434BA0-5757-493C-BAA7-FCF506DE49AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5839ED-0DD7-46CB-9EC5-7C8F9E21981F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Empresa:</t>
   </si>
@@ -85,12 +85,6 @@
     <t>AL PARANA</t>
   </si>
   <si>
-    <t>VERSATIL TELECOMUNICACOES</t>
-  </si>
-  <si>
-    <t>pagou metade (300)</t>
-  </si>
-  <si>
     <t>STAHL PR</t>
   </si>
   <si>
@@ -142,13 +136,25 @@
     <t>18.017.393/0001-01</t>
   </si>
   <si>
-    <t>57.808.017/0001-97</t>
-  </si>
-  <si>
     <t>49.799.785/0001-01</t>
   </si>
   <si>
     <t>31.002.897/0001-16</t>
+  </si>
+  <si>
+    <t>JOSE GARCIA ZABINI</t>
+  </si>
+  <si>
+    <t>outro</t>
+  </si>
+  <si>
+    <t>DESCRICAO DE OUTRO</t>
+  </si>
+  <si>
+    <t>06.120.825/0001-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REGULARIZAÇÃO DE CNPJ REF. 10/24 </t>
   </si>
 </sst>
 </file>
@@ -249,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -301,6 +307,20 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,10 +626,10 @@
   <sheetPr codeName="Planilha1">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,11 +638,12 @@
     <col min="2" max="2" width="18.140625" style="20" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="55" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -635,11 +656,14 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E1" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>4</v>
       </c>
@@ -650,11 +674,12 @@
         <v>45536</v>
       </c>
       <c r="D2" s="5"/>
-      <c r="E2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2"/>
+    </row>
+    <row r="3" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
@@ -667,13 +692,14 @@
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" s="18">
         <v>900</v>
@@ -684,11 +710,12 @@
       <c r="D4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>8</v>
       </c>
@@ -699,12 +726,13 @@
         <v>9</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>10</v>
       </c>
@@ -717,11 +745,12 @@
       <c r="D6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6"/>
+    </row>
+    <row r="7" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>12</v>
       </c>
@@ -734,11 +763,12 @@
       <c r="D7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7"/>
+    </row>
+    <row r="8" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>14</v>
       </c>
@@ -751,13 +781,14 @@
       <c r="D8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="8"/>
+      <c r="E8" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8"/>
       <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>17</v>
       </c>
@@ -768,14 +799,15 @@
         <v>45566</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="E9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B10" s="18">
         <v>600</v>
@@ -784,11 +816,12 @@
         <v>45566</v>
       </c>
       <c r="D10" s="5"/>
-      <c r="E10" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>18</v>
       </c>
@@ -797,11 +830,12 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="1"/>
-      <c r="E11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11"/>
+    </row>
+    <row r="12" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>19</v>
       </c>
@@ -810,11 +844,12 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="23"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B13" s="18">
         <v>300</v>
@@ -823,66 +858,74 @@
         <v>45566</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14" s="17">
         <v>600</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="15"/>
+    </row>
+    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B15" s="17">
         <v>600</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="16"/>
+    </row>
+    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" s="17">
         <v>600</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="23"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="B17" s="17"/>
       <c r="C17" s="2"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="23"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="B18" s="17"/>
       <c r="C18" s="2"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="23"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B19" s="19">
         <f>SUM(B2:B18)</f>
@@ -890,13 +933,14 @@
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
